--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Ror1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Ror1.xlsx
@@ -540,40 +540,40 @@
         <v>27.470878</v>
       </c>
       <c r="I2">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J2">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.921193</v>
+        <v>0.495183</v>
       </c>
       <c r="N2">
-        <v>2.763579</v>
+        <v>1.485549</v>
       </c>
       <c r="O2">
-        <v>0.04194147971775763</v>
+        <v>0.02104240091611809</v>
       </c>
       <c r="P2">
-        <v>0.04194147971775762</v>
+        <v>0.0210424009161181</v>
       </c>
       <c r="Q2">
-        <v>8.435326839151335</v>
+        <v>4.534370593558001</v>
       </c>
       <c r="R2">
-        <v>75.91794155236201</v>
+        <v>40.809335342022</v>
       </c>
       <c r="S2">
-        <v>0.04066098385145571</v>
+        <v>0.02039790777648621</v>
       </c>
       <c r="T2">
-        <v>0.0406609838514557</v>
+        <v>0.02039790777648621</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>27.470878</v>
       </c>
       <c r="I3">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J3">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.502892666666666</v>
+        <v>9.502892666666668</v>
       </c>
       <c r="N3">
         <v>28.508678</v>
       </c>
       <c r="O3">
-        <v>0.4326621891818844</v>
+        <v>0.4038177347664169</v>
       </c>
       <c r="P3">
-        <v>0.4326621891818844</v>
+        <v>0.403817734766417</v>
       </c>
       <c r="Q3">
-        <v>87.01760169769823</v>
+        <v>87.01760169769824</v>
       </c>
       <c r="R3">
-        <v>783.158415279284</v>
+        <v>783.1584152792842</v>
       </c>
       <c r="S3">
-        <v>0.4194527805372491</v>
+        <v>0.3914494807465397</v>
       </c>
       <c r="T3">
-        <v>0.4194527805372491</v>
+        <v>0.3914494807465398</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>27.470878</v>
       </c>
       <c r="I4">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J4">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.539684</v>
+        <v>13.53455266666666</v>
       </c>
       <c r="N4">
-        <v>34.619052</v>
+        <v>40.603658</v>
       </c>
       <c r="O4">
-        <v>0.525396331100358</v>
+        <v>0.5751398643174649</v>
       </c>
       <c r="P4">
-        <v>0.525396331100358</v>
+        <v>0.575139864317465</v>
       </c>
       <c r="Q4">
-        <v>105.6684171075173</v>
+        <v>123.9353483635249</v>
       </c>
       <c r="R4">
-        <v>951.015753967656</v>
+        <v>1115.418135271724</v>
       </c>
       <c r="S4">
-        <v>0.5093556993755941</v>
+        <v>0.5575243033195043</v>
       </c>
       <c r="T4">
-        <v>0.5093556993755941</v>
+        <v>0.5575243033195044</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H5">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.921193</v>
+        <v>0.495183</v>
       </c>
       <c r="N5">
-        <v>2.763579</v>
+        <v>1.485549</v>
       </c>
       <c r="O5">
-        <v>0.04194147971775763</v>
+        <v>0.02104240091611809</v>
       </c>
       <c r="P5">
-        <v>0.04194147971775762</v>
+        <v>0.0210424009161181</v>
       </c>
       <c r="Q5">
-        <v>0.265645346603</v>
+        <v>0.143268161231</v>
       </c>
       <c r="R5">
-        <v>2.390808119427</v>
+        <v>1.289413451079</v>
       </c>
       <c r="S5">
-        <v>0.001280495866301921</v>
+        <v>0.0006444931396318861</v>
       </c>
       <c r="T5">
-        <v>0.001280495866301921</v>
+        <v>0.0006444931396318862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H6">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.502892666666666</v>
+        <v>9.502892666666668</v>
       </c>
       <c r="N6">
         <v>28.508678</v>
       </c>
       <c r="O6">
-        <v>0.4326621891818844</v>
+        <v>0.4038177347664169</v>
       </c>
       <c r="P6">
-        <v>0.4326621891818844</v>
+        <v>0.403817734766417</v>
       </c>
       <c r="Q6">
-        <v>2.740358661179333</v>
+        <v>2.749411750259779</v>
       </c>
       <c r="R6">
-        <v>24.663227950614</v>
+        <v>24.744705752338</v>
       </c>
       <c r="S6">
-        <v>0.01320940864463528</v>
+        <v>0.01236825401987715</v>
       </c>
       <c r="T6">
-        <v>0.01320940864463528</v>
+        <v>0.01236825401987715</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H7">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.539684</v>
+        <v>13.53455266666666</v>
       </c>
       <c r="N7">
-        <v>34.619052</v>
+        <v>40.603658</v>
       </c>
       <c r="O7">
-        <v>0.525396331100358</v>
+        <v>0.5751398643174649</v>
       </c>
       <c r="P7">
-        <v>0.525396331100358</v>
+        <v>0.575139864317465</v>
       </c>
       <c r="Q7">
-        <v>3.327710214764</v>
+        <v>3.915866404213111</v>
       </c>
       <c r="R7">
-        <v>29.949391932876</v>
+        <v>35.242797637918</v>
       </c>
       <c r="S7">
-        <v>0.01604063172476389</v>
+        <v>0.01761556099796058</v>
       </c>
       <c r="T7">
-        <v>0.01604063172476389</v>
+        <v>0.01761556099796058</v>
       </c>
     </row>
   </sheetData>
